--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D84E1E0-88C1-431D-8205-FF189FD1F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2957525E-0507-46DF-B547-37A3D5F57B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ED38D36D-4EB1-4322-9E82-FE13482EDCC1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{72BCF7B4-25E8-4228-81E4-763946A091D2}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E129F24-BD11-4329-AB0E-314DDEF09E15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DDE8D4-9689-4725-8D48-B00C1A4B864C}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4791,7 +4791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F89249A-B87D-4FBD-A1D9-464BF4D8626C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD9729C-154D-42ED-8F97-6F267442DF8C}">
   <dimension ref="A2:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7164,7 +7164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03FC724-276D-4404-A714-B8D26FC9016B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77CA41B-2033-4A66-BBBF-DA29CA282B4F}">
   <dimension ref="A2:S306"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B59A12E-9EBF-44A0-A79C-9FDD55B657A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C8D3A7-1FD7-417B-9FC0-A0ADA182B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DB472F88-BF4E-4D2B-B8B2-CF164021781D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1B02FC0C-1C6D-48CB-8E2E-4CDD3A71E089}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1999,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1503213-ECC0-400F-9CE8-C1473BDEC40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ED9B3A-08CD-4325-8DB5-937346423914}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4987,7 +4987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD499D2-93B2-4565-885A-D8827820EF8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F0D7F6-1EB3-4FC7-AD3F-9BBE7BDEAC4A}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7515,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6420C11-2580-4EB7-A963-B3A002FDA6BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B7352-8E66-4A7A-812F-9A2D176385AC}">
   <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C8D3A7-1FD7-417B-9FC0-A0ADA182B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{203A46C0-38C3-437B-BDA6-F39E755B6D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1B02FC0C-1C6D-48CB-8E2E-4CDD3A71E089}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{226B5993-F96C-44F6-8534-6C1F834B6432}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1999,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ED9B3A-08CD-4325-8DB5-937346423914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047FC5AB-47D5-4C20-A593-A8AE8458F973}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4987,7 +4987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F0D7F6-1EB3-4FC7-AD3F-9BBE7BDEAC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16546580-D08D-4DDA-B7B7-F8EDF3467F1D}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7515,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B7352-8E66-4A7A-812F-9A2D176385AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A38DB0-ED30-490F-978D-929AF81435C0}">
   <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203A46C0-38C3-437B-BDA6-F39E755B6D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF54304-C311-45A4-BBA1-3175379773E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{226B5993-F96C-44F6-8534-6C1F834B6432}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5B322C2-2303-4133-8B76-3DA551D5F68F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -655,7 +655,7 @@
     <t>ep_wind_onshore_G100000924509</t>
   </si>
   <si>
-    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -1569,7 +1569,7 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1999,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047FC5AB-47D5-4C20-A593-A8AE8458F973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA8A762-8FA3-4D3E-B335-9A05AE4EE39F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4987,7 +4987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16546580-D08D-4DDA-B7B7-F8EDF3467F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086677AD-19FA-4FA5-9C89-3921A07FDBF1}">
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7515,7 +7515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A38DB0-ED30-490F-978D-929AF81435C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466DC503-B40E-4101-B3E9-056F922CE9DD}">
   <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF54304-C311-45A4-BBA1-3175379773E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4CB670-E50A-4C90-A58E-C0AB0E0EECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5B322C2-2303-4133-8B76-3DA551D5F68F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{622FC6B9-8E4A-4EC3-B969-5F87E8902BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="503">
   <si>
     <t>~fi_t</t>
   </si>
@@ -607,7 +607,7 @@
     <t>solar</t>
   </si>
   <si>
-    <t>ELC_Sol-FRA</t>
+    <t>elc_sol-FRA</t>
   </si>
   <si>
     <t>ep_solar_pv_</t>
@@ -625,7 +625,7 @@
     <t>wind</t>
   </si>
   <si>
-    <t>ELC_Win-FRA</t>
+    <t>elc_win-FRA</t>
   </si>
   <si>
     <t>ep_wind_offshore_G100000919987</t>
@@ -1562,8 +1562,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1575,15 +1576,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -1659,12 +1659,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA8A762-8FA3-4D3E-B335-9A05AE4EE39F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B79824-16A0-4071-929F-9744C2DDB305}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2007,15 +2007,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" customWidth="1"/>
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2048,7 +2046,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>473</v>
       </c>
@@ -2134,7 +2132,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>473</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>473</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>473</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>473</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>476</v>
       </c>
@@ -2344,7 +2342,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>476</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>476</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>476</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>476</v>
       </c>
@@ -2512,7 +2510,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>477</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>477</v>
       </c>
@@ -2596,7 +2594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>477</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>477</v>
       </c>
@@ -2680,7 +2678,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>477</v>
       </c>
@@ -2722,7 +2720,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>478</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>478</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>478</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>478</v>
       </c>
@@ -2890,7 +2888,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>478</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>479</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>479</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>479</v>
       </c>
@@ -3058,7 +3056,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>480</v>
       </c>
@@ -3100,7 +3098,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>480</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>480</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>481</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>481</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>481</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>482</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>482</v>
       </c>
@@ -3299,7 +3297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>482</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>483</v>
       </c>
@@ -3345,7 +3343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>483</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>483</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>483</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>483</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>484</v>
       </c>
@@ -3460,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>484</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>484</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>486</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>486</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>486</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>487</v>
       </c>
@@ -3598,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>487</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>487</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>487</v>
       </c>
@@ -3667,7 +3665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>487</v>
       </c>
@@ -3690,7 +3688,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>488</v>
       </c>
@@ -3713,7 +3711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>488</v>
       </c>
@@ -3736,7 +3734,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>488</v>
       </c>
@@ -3759,7 +3757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>488</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>488</v>
       </c>
@@ -3805,7 +3803,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>489</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>489</v>
       </c>
@@ -3851,7 +3849,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>489</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>489</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>489</v>
       </c>
@@ -3920,7 +3918,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>490</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>490</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>490</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>491</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>491</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>491</v>
       </c>
@@ -4058,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>492</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>492</v>
       </c>
@@ -4104,7 +4102,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>492</v>
       </c>
@@ -4127,7 +4125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>492</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>492</v>
       </c>
@@ -4173,7 +4171,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>494</v>
       </c>
@@ -4196,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>494</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>494</v>
       </c>
@@ -4242,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>495</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>495</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>495</v>
       </c>
@@ -4311,7 +4309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>496</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>496</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>496</v>
       </c>
@@ -4380,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>496</v>
       </c>
@@ -4403,7 +4401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>496</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>497</v>
       </c>
@@ -4449,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>497</v>
       </c>
@@ -4472,7 +4470,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>497</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>497</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>497</v>
       </c>
@@ -4541,7 +4539,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>498</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>498</v>
       </c>
@@ -4587,7 +4585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>498</v>
       </c>
@@ -4610,7 +4608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>499</v>
       </c>
@@ -4633,7 +4631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>499</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>499</v>
       </c>
@@ -4679,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>500</v>
       </c>
@@ -4702,7 +4700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>500</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>500</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>501</v>
       </c>
@@ -4771,7 +4769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>501</v>
       </c>
@@ -4794,7 +4792,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>501</v>
       </c>
@@ -4817,7 +4815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>501</v>
       </c>
@@ -4840,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>501</v>
       </c>
@@ -4863,7 +4861,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>502</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>502</v>
       </c>
@@ -4909,7 +4907,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>502</v>
       </c>
@@ -4932,7 +4930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>502</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>502</v>
       </c>
@@ -4987,25 +4985,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086677AD-19FA-4FA5-9C89-3921A07FDBF1}">
-  <dimension ref="A1:U46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2F4944-3D94-4CC3-BE63-DDE23EA68BE4}">
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="30.59765625" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
     <col min="16" max="17" width="30.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5042,7 +5037,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5098,7 +5093,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>392</v>
       </c>
@@ -5154,7 +5149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>393</v>
       </c>
@@ -5210,7 +5205,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>394</v>
       </c>
@@ -5266,7 +5261,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>395</v>
       </c>
@@ -5322,7 +5317,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>396</v>
       </c>
@@ -5378,7 +5373,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>397</v>
       </c>
@@ -5434,7 +5429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>398</v>
       </c>
@@ -5490,7 +5485,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>399</v>
       </c>
@@ -5546,7 +5541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>400</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>401</v>
       </c>
@@ -5658,7 +5653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>402</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>403</v>
       </c>
@@ -5770,7 +5765,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>404</v>
       </c>
@@ -5826,7 +5821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>405</v>
       </c>
@@ -5882,7 +5877,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>406</v>
       </c>
@@ -5938,7 +5933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>407</v>
       </c>
@@ -5994,7 +5989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>408</v>
       </c>
@@ -6050,7 +6045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>409</v>
       </c>
@@ -6106,7 +6101,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>410</v>
       </c>
@@ -6162,7 +6157,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>411</v>
       </c>
@@ -6218,7 +6213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>412</v>
       </c>
@@ -6274,7 +6269,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>413</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>414</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>415</v>
       </c>
@@ -6442,7 +6437,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>416</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>417</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>418</v>
       </c>
@@ -6610,7 +6605,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>419</v>
       </c>
@@ -6666,7 +6661,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>420</v>
       </c>
@@ -6722,9 +6717,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>22</v>
@@ -6733,7 +6728,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="4">
-        <v>0.31994374999999997</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E33" s="4">
         <v>1365</v>
@@ -6748,7 +6743,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J33" s="4">
         <v>1</v>
@@ -6778,9 +6773,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>22</v>
@@ -6789,7 +6784,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="3">
-        <v>0.30191874999999996</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E34" s="3">
         <v>1365</v>
@@ -6804,7 +6799,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -6834,18 +6829,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="4">
-        <v>0.450625</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E35" s="4">
         <v>1365</v>
@@ -6860,7 +6855,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
@@ -6890,18 +6885,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="3">
-        <v>0.450625</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E36" s="3">
         <v>1365</v>
@@ -6916,7 +6911,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
@@ -6946,18 +6941,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="4">
-        <v>0.450625</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E37" s="4">
         <v>1365</v>
@@ -6972,7 +6967,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -7002,18 +6997,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="3">
-        <v>0.450625</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E38" s="3">
         <v>1365</v>
@@ -7028,7 +7023,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
@@ -7058,18 +7053,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="4">
-        <v>0.25235000000000002</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E39" s="4">
         <v>1365</v>
@@ -7084,7 +7079,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -7114,18 +7109,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="3">
-        <v>0.22981874999999999</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E40" s="3">
         <v>1365</v>
@@ -7140,7 +7135,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -7170,18 +7165,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>0.21629999999999999</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E41" s="4">
         <v>1365</v>
@@ -7196,7 +7191,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="J41" s="4">
         <v>1</v>
@@ -7226,18 +7221,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="3">
-        <v>0.26136249999999994</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E42" s="3">
         <v>1365</v>
@@ -7252,7 +7247,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -7282,18 +7277,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>0.28389375</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E43" s="4">
         <v>1365</v>
@@ -7308,7 +7303,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="J43" s="4">
         <v>1</v>
@@ -7338,18 +7333,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="3">
-        <v>0.31543749999999998</v>
+        <v>0.27037500000000003</v>
       </c>
       <c r="E44" s="3">
         <v>1365</v>
@@ -7364,7 +7359,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
@@ -7394,18 +7389,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>0.28389375</v>
+        <v>0.31994374999999997</v>
       </c>
       <c r="E45" s="4">
         <v>1365</v>
@@ -7420,7 +7415,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="J45" s="4">
         <v>1</v>
@@ -7450,18 +7445,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="3">
-        <v>0.29290625000000003</v>
+        <v>0.30191874999999996</v>
       </c>
       <c r="E46" s="3">
         <v>1365</v>
@@ -7476,7 +7471,7 @@
         <v>0.84455000000000002</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
@@ -7504,6 +7499,1161 @@
       </c>
       <c r="U46" s="3" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F47" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F48" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F49" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G49" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F50" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F51" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.30191874999999996</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F52" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.450625</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F53" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.450625</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F54" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.450625</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F55" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.450625</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F56" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G56" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.450625</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F57" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.25235000000000002</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F58" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.22981874999999999</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F59" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F60" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F61" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G61" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F62" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F63" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F64" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G64" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F65" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G65" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F66" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F67" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G67" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F68" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F69" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G69" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.26136249999999994</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F70" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.28389375</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F71" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.31543749999999998</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F72" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.28389375</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F73" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G73" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F74" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F75" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G75" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F76" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F77" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1365</v>
+      </c>
+      <c r="F78" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.29290625000000003</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1365</v>
+      </c>
+      <c r="F79" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G79" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7515,7 +8665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466DC503-B40E-4101-B3E9-056F922CE9DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A02D97A-F29B-46F6-A6BE-F9BE272F768D}">
   <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7523,17 +8673,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="2" max="10" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="10.59765625" customWidth="1"/>
     <col min="15" max="16" width="30.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7569,7 +8714,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7622,7 +8767,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7675,7 +8820,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -7728,7 +8873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -7781,7 +8926,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7834,7 +8979,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -7887,7 +9032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -7940,7 +9085,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -7993,7 +9138,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -8046,7 +9191,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -8099,7 +9244,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -8152,7 +9297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -8205,7 +9350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -8258,7 +9403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +9456,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -8364,7 +9509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -8417,7 +9562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -8470,7 +9615,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -8523,7 +9668,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -8576,7 +9721,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -8629,7 +9774,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
@@ -8682,7 +9827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -8735,7 +9880,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -8788,7 +9933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -8841,7 +9986,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -8894,7 +10039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -8947,7 +10092,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -9000,7 +10145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -9053,7 +10198,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -9106,7 +10251,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -9159,7 +10304,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -9212,7 +10357,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -9265,7 +10410,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -9318,7 +10463,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -9371,7 +10516,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -9424,7 +10569,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -9477,7 +10622,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -9530,7 +10675,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -9583,7 +10728,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -9636,7 +10781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -9689,7 +10834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -9742,7 +10887,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
@@ -9795,7 +10940,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -9848,7 +10993,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -9901,7 +11046,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -9954,7 +11099,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -10007,7 +11152,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -10060,7 +11205,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -10113,7 +11258,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -10166,7 +11311,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
@@ -10219,7 +11364,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -10272,7 +11417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>48</v>
       </c>
@@ -10325,7 +11470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -10378,7 +11523,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -10431,7 +11576,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
@@ -10484,7 +11629,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -10537,7 +11682,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>48</v>
       </c>
@@ -10590,7 +11735,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
@@ -10643,7 +11788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
@@ -10696,7 +11841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
@@ -10749,7 +11894,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>51</v>
       </c>
@@ -10802,7 +11947,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>51</v>
       </c>
@@ -10855,7 +12000,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
@@ -10908,7 +12053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
@@ -10961,7 +12106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
@@ -11014,7 +12159,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
@@ -11067,7 +12212,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>51</v>
       </c>
@@ -11120,7 +12265,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>51</v>
       </c>
@@ -11173,7 +12318,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>51</v>
       </c>
@@ -11226,7 +12371,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>51</v>
       </c>
@@ -11279,7 +12424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>51</v>
       </c>
@@ -11332,7 +12477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>51</v>
       </c>
@@ -11385,7 +12530,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>51</v>
       </c>
@@ -11438,7 +12583,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>51</v>
       </c>
@@ -11491,7 +12636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>51</v>
       </c>
@@ -11544,7 +12689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
@@ -11597,7 +12742,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>51</v>
       </c>
@@ -11650,7 +12795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>51</v>
       </c>
@@ -11703,7 +12848,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>51</v>
       </c>
@@ -11756,7 +12901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>51</v>
       </c>
@@ -11809,7 +12954,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>51</v>
       </c>
@@ -11862,7 +13007,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>51</v>
       </c>
@@ -11915,7 +13060,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>51</v>
       </c>
@@ -11968,7 +13113,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>53</v>
       </c>
@@ -12021,7 +13166,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>54</v>
       </c>
@@ -12074,7 +13219,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>55</v>
       </c>
@@ -12127,7 +13272,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>56</v>
       </c>
@@ -12180,7 +13325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>57</v>
       </c>
@@ -12233,7 +13378,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>58</v>
       </c>
@@ -12286,7 +13431,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>59</v>
       </c>
@@ -12339,7 +13484,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>60</v>
       </c>
@@ -12392,7 +13537,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>61</v>
       </c>
@@ -12445,7 +13590,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>62</v>
       </c>
@@ -12498,7 +13643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>63</v>
       </c>
@@ -12551,7 +13696,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>64</v>
       </c>
@@ -12604,7 +13749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>65</v>
       </c>
@@ -12657,7 +13802,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>66</v>
       </c>
@@ -12710,7 +13855,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>67</v>
       </c>
@@ -12763,7 +13908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>68</v>
       </c>
@@ -12816,7 +13961,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>69</v>
       </c>
@@ -12869,7 +14014,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>70</v>
       </c>
@@ -12922,7 +14067,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>71</v>
       </c>
@@ -12975,7 +14120,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>72</v>
       </c>
@@ -13028,7 +14173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>73</v>
       </c>
@@ -13081,7 +14226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>74</v>
       </c>
@@ -13134,7 +14279,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>75</v>
       </c>
@@ -13187,7 +14332,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>76</v>
       </c>
@@ -13240,7 +14385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>77</v>
       </c>
@@ -13293,7 +14438,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>78</v>
       </c>
@@ -13346,7 +14491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>79</v>
       </c>
@@ -13399,7 +14544,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>80</v>
       </c>
@@ -13452,7 +14597,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>81</v>
       </c>
@@ -13505,7 +14650,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>82</v>
       </c>
@@ -13558,7 +14703,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>83</v>
       </c>
@@ -13611,7 +14756,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>84</v>
       </c>
@@ -13664,7 +14809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>84</v>
       </c>
@@ -13717,7 +14862,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>84</v>
       </c>
@@ -13770,7 +14915,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>84</v>
       </c>
@@ -13823,7 +14968,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>84</v>
       </c>
@@ -13876,7 +15021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>84</v>
       </c>
@@ -13929,7 +15074,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
@@ -13982,7 +15127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>84</v>
       </c>
@@ -14035,7 +15180,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>84</v>
       </c>
@@ -14088,7 +15233,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>84</v>
       </c>
@@ -14141,7 +15286,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>84</v>
       </c>
@@ -14194,7 +15339,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>84</v>
       </c>
@@ -14247,7 +15392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>84</v>
       </c>
@@ -14300,7 +15445,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>84</v>
       </c>
@@ -14353,7 +15498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>84</v>
       </c>
@@ -14406,7 +15551,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>84</v>
       </c>
@@ -14459,7 +15604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>84</v>
       </c>
@@ -14512,7 +15657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>85</v>
       </c>
@@ -14565,7 +15710,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>86</v>
       </c>
@@ -14618,7 +15763,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>87</v>
       </c>
@@ -14671,7 +15816,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>88</v>
       </c>
@@ -14724,7 +15869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>89</v>
       </c>
@@ -14777,7 +15922,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>90</v>
       </c>
@@ -14830,7 +15975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>91</v>
       </c>
@@ -14883,7 +16028,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>92</v>
       </c>
@@ -14936,7 +16081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>93</v>
       </c>
@@ -14989,7 +16134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>94</v>
       </c>
@@ -15042,7 +16187,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>95</v>
       </c>
@@ -15095,7 +16240,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>96</v>
       </c>
@@ -15148,7 +16293,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>97</v>
       </c>
@@ -15201,7 +16346,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>98</v>
       </c>
@@ -15254,7 +16399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>99</v>
       </c>
@@ -15307,7 +16452,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>100</v>
       </c>
@@ -15360,7 +16505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>101</v>
       </c>
@@ -15413,7 +16558,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>102</v>
       </c>
@@ -15466,7 +16611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>103</v>
       </c>
@@ -15519,7 +16664,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>104</v>
       </c>
@@ -15572,7 +16717,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>105</v>
       </c>
@@ -15625,7 +16770,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>106</v>
       </c>
@@ -15678,7 +16823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>107</v>
       </c>
@@ -15731,7 +16876,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>108</v>
       </c>
@@ -15784,7 +16929,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>109</v>
       </c>
@@ -15837,7 +16982,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>110</v>
       </c>
@@ -15890,7 +17035,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>111</v>
       </c>
@@ -15943,7 +17088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
         <v>112</v>
       </c>
@@ -15996,7 +17141,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>113</v>
       </c>
@@ -16049,7 +17194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>114</v>
       </c>
@@ -16102,7 +17247,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>115</v>
       </c>
@@ -16155,7 +17300,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>116</v>
       </c>
@@ -16208,7 +17353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>118</v>
       </c>
@@ -16261,7 +17406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>119</v>
       </c>
@@ -16314,7 +17459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>120</v>
       </c>
@@ -16367,7 +17512,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>121</v>
       </c>
@@ -16420,7 +17565,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>122</v>
       </c>
@@ -16473,7 +17618,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>123</v>
       </c>
@@ -16526,7 +17671,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>124</v>
       </c>
@@ -16579,7 +17724,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>125</v>
       </c>
@@ -16632,7 +17777,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>126</v>
       </c>
@@ -16685,7 +17830,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>127</v>
       </c>
@@ -16738,7 +17883,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>128</v>
       </c>
@@ -16791,7 +17936,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>129</v>
       </c>
@@ -16844,7 +17989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>130</v>
       </c>
@@ -16897,7 +18042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>131</v>
       </c>
@@ -16950,7 +18095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>132</v>
       </c>
@@ -17003,7 +18148,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>133</v>
       </c>
@@ -17056,7 +18201,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>134</v>
       </c>
@@ -17109,7 +18254,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>135</v>
       </c>
@@ -17162,7 +18307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>136</v>
       </c>
@@ -17215,7 +18360,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>137</v>
       </c>
@@ -17268,7 +18413,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>138</v>
       </c>
@@ -17300,7 +18445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>139</v>
       </c>
@@ -17332,7 +18477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>140</v>
       </c>
@@ -17364,7 +18509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>141</v>
       </c>
@@ -17396,7 +18541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>142</v>
       </c>
@@ -17428,7 +18573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>143</v>
       </c>
@@ -17460,7 +18605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>144</v>
       </c>
@@ -17492,7 +18637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>145</v>
       </c>
@@ -17524,7 +18669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>146</v>
       </c>
@@ -17556,7 +18701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>147</v>
       </c>
@@ -17588,7 +18733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>148</v>
       </c>
@@ -17620,7 +18765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
         <v>149</v>
       </c>
@@ -17652,7 +18797,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>150</v>
       </c>
@@ -17684,7 +18829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>151</v>
       </c>
@@ -17716,7 +18861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>152</v>
       </c>
@@ -17748,7 +18893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>153</v>
       </c>
@@ -17780,7 +18925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>154</v>
       </c>
@@ -17812,7 +18957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>155</v>
       </c>
@@ -17844,7 +18989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>156</v>
       </c>
@@ -17876,7 +19021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>157</v>
       </c>
@@ -17908,7 +19053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>158</v>
       </c>
@@ -17940,7 +19085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>159</v>
       </c>
@@ -17972,7 +19117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>160</v>
       </c>
@@ -18004,7 +19149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>161</v>
       </c>
@@ -18036,7 +19181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>162</v>
       </c>
@@ -18068,7 +19213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>163</v>
       </c>
@@ -18100,7 +19245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>164</v>
       </c>
@@ -18132,7 +19277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>165</v>
       </c>
@@ -18164,7 +19309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>166</v>
       </c>
@@ -18196,7 +19341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>167</v>
       </c>
@@ -18228,7 +19373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>168</v>
       </c>
@@ -18260,7 +19405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>169</v>
       </c>
@@ -18292,7 +19437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>170</v>
       </c>
@@ -18324,7 +19469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>171</v>
       </c>
@@ -18356,7 +19501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>172</v>
       </c>
@@ -18388,7 +19533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>173</v>
       </c>
@@ -18420,7 +19565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>174</v>
       </c>
@@ -18452,7 +19597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>174</v>
       </c>
@@ -18484,7 +19629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>176</v>
       </c>
@@ -18516,7 +19661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>177</v>
       </c>
@@ -18548,7 +19693,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>178</v>
       </c>
@@ -18580,7 +19725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>179</v>
       </c>
@@ -18612,7 +19757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>179</v>
       </c>
@@ -18644,7 +19789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>179</v>
       </c>
@@ -18676,7 +19821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>179</v>
       </c>
@@ -18708,7 +19853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
         <v>179</v>
       </c>
@@ -18740,7 +19885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>179</v>
       </c>
@@ -18772,7 +19917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>179</v>
       </c>
@@ -18804,7 +19949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>179</v>
       </c>
@@ -18836,7 +19981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>179</v>
       </c>
@@ -18868,7 +20013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>179</v>
       </c>
@@ -18900,7 +20045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>180</v>
       </c>
@@ -18932,7 +20077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>181</v>
       </c>
@@ -18964,7 +20109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>182</v>
       </c>
@@ -18996,7 +20141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>183</v>
       </c>
@@ -19028,7 +20173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>184</v>
       </c>
@@ -19060,7 +20205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>185</v>
       </c>
@@ -19092,7 +20237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>186</v>
       </c>
@@ -19124,7 +20269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>186</v>
       </c>
@@ -19156,7 +20301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>186</v>
       </c>
@@ -19188,7 +20333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>186</v>
       </c>
@@ -19220,7 +20365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>186</v>
       </c>
@@ -19252,7 +20397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>186</v>
       </c>
@@ -19284,7 +20429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>187</v>
       </c>
@@ -19316,7 +20461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>187</v>
       </c>
@@ -19348,7 +20493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>187</v>
       </c>
@@ -19380,7 +20525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>187</v>
       </c>
@@ -19412,7 +20557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>187</v>
       </c>
@@ -19444,7 +20589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>187</v>
       </c>
@@ -19476,7 +20621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
         <v>187</v>
       </c>
@@ -19508,7 +20653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>187</v>
       </c>
@@ -19540,7 +20685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
         <v>187</v>
       </c>
@@ -19572,7 +20717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>187</v>
       </c>
@@ -19604,7 +20749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>187</v>
       </c>
@@ -19636,7 +20781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>187</v>
       </c>
@@ -19668,7 +20813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>187</v>
       </c>
@@ -19700,7 +20845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>187</v>
       </c>
@@ -19732,7 +20877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>187</v>
       </c>
@@ -19764,7 +20909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>187</v>
       </c>
@@ -19796,7 +20941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
         <v>187</v>
       </c>
@@ -19828,7 +20973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>187</v>
       </c>
@@ -19860,7 +21005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>187</v>
       </c>
@@ -19892,7 +21037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>187</v>
       </c>
@@ -19924,7 +21069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
         <v>190</v>
       </c>
@@ -19956,7 +21101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>191</v>
       </c>
@@ -19988,7 +21133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>192</v>
       </c>
@@ -20020,7 +21165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>193</v>
       </c>
@@ -20052,7 +21197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
         <v>193</v>
       </c>
@@ -20084,7 +21229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>193</v>
       </c>
@@ -20116,7 +21261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
         <v>196</v>
       </c>
@@ -20148,7 +21293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>197</v>
       </c>
@@ -20180,7 +21325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
         <v>198</v>
       </c>
@@ -20212,7 +21357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>199</v>
       </c>
@@ -20244,7 +21389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
         <v>200</v>
       </c>
@@ -20276,7 +21421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>201</v>
       </c>
@@ -20308,7 +21453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
         <v>202</v>
       </c>
@@ -20340,7 +21485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>202</v>
       </c>
@@ -20372,7 +21517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
         <v>202</v>
       </c>
@@ -20404,7 +21549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>202</v>
       </c>
@@ -20436,7 +21581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
         <v>202</v>
       </c>
@@ -20468,7 +21613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>202</v>
       </c>
@@ -20500,7 +21645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
         <v>202</v>
       </c>
@@ -20532,7 +21677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>202</v>
       </c>
@@ -20564,7 +21709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
         <v>202</v>
       </c>
@@ -20596,7 +21741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>202</v>
       </c>
@@ -20628,7 +21773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>202</v>
       </c>
@@ -20660,7 +21805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>202</v>
       </c>
@@ -20692,7 +21837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>202</v>
       </c>
@@ -20724,7 +21869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>202</v>
       </c>
@@ -20756,7 +21901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
         <v>202</v>
       </c>
@@ -20788,7 +21933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>202</v>
       </c>
@@ -20820,7 +21965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
         <v>202</v>
       </c>
@@ -20852,7 +21997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>202</v>
       </c>
@@ -20884,7 +22029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
         <v>202</v>
       </c>
@@ -20916,7 +22061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>202</v>
       </c>
@@ -20948,7 +22093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>202</v>
       </c>
@@ -20980,7 +22125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>202</v>
       </c>
@@ -21012,7 +22157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
         <v>202</v>
       </c>
@@ -21044,7 +22189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>202</v>
       </c>
@@ -21076,7 +22221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
         <v>202</v>
       </c>
@@ -21108,7 +22253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>202</v>
       </c>
@@ -21140,7 +22285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
         <v>202</v>
       </c>
@@ -21172,7 +22317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>203</v>
       </c>
@@ -21204,7 +22349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
         <v>204</v>
       </c>

--- a/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
+++ b/VerveStacks_FRA/vt_vervestacks_FRA_v1.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4CB670-E50A-4C90-A58E-C0AB0E0EECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C06068E-BDA6-46EB-BE00-DC87FB2C1BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{622FC6B9-8E4A-4EC3-B969-5F87E8902BE5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6F86D249-9CDC-4E43-B297-36801F580D67}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
-    <sheet name="ccs_retrofits" sheetId="2" r:id="rId2"/>
-    <sheet name="existing_stock" sheetId="1" r:id="rId3"/>
+    <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
+    <sheet name="existing_stock" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="472">
   <si>
     <t>~fi_t</t>
   </si>
@@ -601,31 +600,31 @@
     <t>ep_oil_steam_turbine</t>
   </si>
   <si>
-    <t>ep_solar_pv</t>
+    <t>ep_solar_pv_</t>
   </si>
   <si>
     <t>solar</t>
   </si>
   <si>
-    <t>elc_sol-FRA</t>
-  </si>
-  <si>
-    <t>ep_solar_pv_</t>
+    <t>elc_spv-FRA</t>
+  </si>
+  <si>
+    <t>ep_solar_pv_FRA</t>
   </si>
   <si>
     <t>ep_solar_pv_G100000806797</t>
   </si>
   <si>
-    <t>ep_solar_thermal</t>
-  </si>
-  <si>
-    <t>ep_wind_offshore</t>
+    <t>ep_solar_thermal_FRA</t>
+  </si>
+  <si>
+    <t>ep_wind_offshore_FRA</t>
   </si>
   <si>
     <t>wind</t>
   </si>
   <si>
-    <t>elc_win-FRA</t>
+    <t>elc_won-FRA</t>
   </si>
   <si>
     <t>ep_wind_offshore_G100000919987</t>
@@ -646,7 +645,7 @@
     <t>ep_wind_offshore_G100000920009</t>
   </si>
   <si>
-    <t>ep_wind_onshore</t>
+    <t>ep_wind_onshore_FRA</t>
   </si>
   <si>
     <t>ep_wind_onshore_G100000924097</t>
@@ -655,7 +654,7 @@
     <t>ep_wind_onshore_G100000924509</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -1174,12 +1173,12 @@
     <t>Lucciana power station_IC1-7</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
+  </si>
+  <si>
     <t>annual</t>
   </si>
   <si>
-    <t>Aggregated Plant - IRENA Gap_Missing Solar Capacity</t>
-  </si>
-  <si>
     <t>Cestas solar farm_1</t>
   </si>
   <si>
@@ -1454,99 +1453,6 @@
   </si>
   <si>
     <t>ccs retrofit of -- Lucciana power station_IC1-7</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>ncap_af</t>
-  </si>
-  <si>
-    <t>ncap_iled</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>CCGT + CCS</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
-  </si>
-  <si>
-    <t>Coal + CCS</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Gas turbine</t>
-  </si>
-  <si>
-    <t>Geothermal plant</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>Hydropower - small-scale unit</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>IGCC + CCS</t>
-  </si>
-  <si>
-    <t>Marine power</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Nuclear large</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Large scale unit</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUBCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - SUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Steam Coal - ULTRASUPERCRITICAL</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
-  </si>
-  <si>
-    <t>Wind onshore</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1468,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1572,12 +1484,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1659,12 +1565,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,6 +1587,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>163513</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E49D8A7-D625-EE04-E609-74B2E2FA1798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12369800" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F27D87-8A92-C1D9-FE14-C0ECA0DDF9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1999,2996 +2015,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B79824-16A0-4071-929F-9744C2DDB305}">
-  <dimension ref="A1:Q107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4B4599-0F80-4025-8F18-B45EF4C81408}">
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2050</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5750</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>175</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>600</v>
-      </c>
-      <c r="E11" s="4">
-        <v>575</v>
-      </c>
-      <c r="F11" s="4">
-        <v>575</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2350</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>85</v>
-      </c>
-      <c r="E17" s="4">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4">
-        <v>80</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3750</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3700</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3600</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3">
-        <v>140</v>
-      </c>
-      <c r="E22" s="3">
-        <v>140</v>
-      </c>
-      <c r="F22" s="3">
-        <v>135</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A25" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="4">
-        <v>75</v>
-      </c>
-      <c r="E29" s="4">
-        <v>75</v>
-      </c>
-      <c r="F29" s="4">
-        <v>60</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1300</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3">
-        <v>40</v>
-      </c>
-      <c r="E32" s="3">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3">
-        <v>40</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4350</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4">
-        <v>165</v>
-      </c>
-      <c r="E35" s="4">
-        <v>165</v>
-      </c>
-      <c r="F35" s="4">
-        <v>130</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3">
-        <v>5650</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4950</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3850</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>210</v>
-      </c>
-      <c r="E39" s="4">
-        <v>200</v>
-      </c>
-      <c r="F39" s="4">
-        <v>150</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4">
-        <v>50</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4">
-        <v>500</v>
-      </c>
-      <c r="E45" s="4">
-        <v>500</v>
-      </c>
-      <c r="F45" s="4">
-        <v>500</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3">
-        <v>20</v>
-      </c>
-      <c r="F46" s="3">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2850</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2800</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2600</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3">
-        <v>55</v>
-      </c>
-      <c r="E50" s="3">
-        <v>55</v>
-      </c>
-      <c r="F50" s="3">
-        <v>50</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4">
-        <v>4</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2650</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4">
-        <v>65</v>
-      </c>
-      <c r="E55" s="4">
-        <v>65</v>
-      </c>
-      <c r="F55" s="4">
-        <v>65</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="E59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3850</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>75</v>
-      </c>
-      <c r="F60" s="3">
-        <v>75</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-      <c r="E61" s="4">
-        <v>4</v>
-      </c>
-      <c r="F61" s="4">
-        <v>4</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4">
-        <v>2500</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2350</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="3">
-        <v>95</v>
-      </c>
-      <c r="E64" s="3">
-        <v>85</v>
-      </c>
-      <c r="F64" s="3">
-        <v>80</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3">
-        <v>5850</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4">
-        <v>205</v>
-      </c>
-      <c r="E67" s="4">
-        <v>200</v>
-      </c>
-      <c r="F67" s="4">
-        <v>180</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="3">
-        <v>6950</v>
-      </c>
-      <c r="E70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4">
-        <v>200</v>
-      </c>
-      <c r="E71" s="4">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>90</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="3">
-        <v>6600</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="4">
-        <v>165</v>
-      </c>
-      <c r="E75" s="4">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4">
-        <v>160</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="E77" s="4">
-        <v>5700</v>
-      </c>
-      <c r="F77" s="4">
-        <v>5100</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="3">
-        <v>170</v>
-      </c>
-      <c r="E78" s="3">
-        <v>170</v>
-      </c>
-      <c r="F78" s="3">
-        <v>155</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="4">
-        <v>990</v>
-      </c>
-      <c r="E81" s="4">
-        <v>650</v>
-      </c>
-      <c r="F81" s="4">
-        <v>470</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="3">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3">
-        <v>14</v>
-      </c>
-      <c r="F82" s="3">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="3">
-        <v>750</v>
-      </c>
-      <c r="E86" s="3">
-        <v>480</v>
-      </c>
-      <c r="F86" s="3">
-        <v>340</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="4">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4">
-        <v>10</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A89" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="E89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A90" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="4">
-        <v>45</v>
-      </c>
-      <c r="E91" s="4">
-        <v>45</v>
-      </c>
-      <c r="F91" s="4">
-        <v>45</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A94" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3">
-        <v>60</v>
-      </c>
-      <c r="E94" s="3">
-        <v>60</v>
-      </c>
-      <c r="F94" s="3">
-        <v>60</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A95" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F95" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A97" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="4">
-        <v>65</v>
-      </c>
-      <c r="E97" s="4">
-        <v>65</v>
-      </c>
-      <c r="F97" s="4">
-        <v>65</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A99" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3">
-        <v>3120</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2280</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1660</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="4">
-        <v>60</v>
-      </c>
-      <c r="E101" s="4">
-        <v>50</v>
-      </c>
-      <c r="F101" s="4">
-        <v>40</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="4">
-        <v>1</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A105" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1630</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1550</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1490</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A106" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="3">
-        <v>42</v>
-      </c>
-      <c r="E106" s="3">
-        <v>40</v>
-      </c>
-      <c r="F106" s="3">
-        <v>38</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A107" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2F4944-3D94-4CC3-BE63-DDE23EA68BE4}">
-  <dimension ref="A1:U79"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5004,7 +2034,7 @@
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -5026,8 +2056,6 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -8658,14 +5686,15 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A02D97A-F29B-46F6-A6BE-F9BE272F768D}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CECD348-300A-48C0-B2D1-768ED25234DC}">
   <dimension ref="A1:T309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8682,7 +5711,7 @@
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -8703,8 +5732,6 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -17709,7 +14736,7 @@
         <v>187</v>
       </c>
       <c r="P172" s="3" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="Q172" s="3" t="s">
         <v>215</v>
@@ -17718,7 +14745,7 @@
         <v>216</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>218</v>
@@ -17762,16 +14789,16 @@
         <v>190</v>
       </c>
       <c r="P173" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R173" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="S173" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="Q173" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="R173" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="S173" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="T173" s="4" t="s">
         <v>218</v>
@@ -17824,7 +14851,7 @@
         <v>216</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>221</v>
@@ -17877,7 +14904,7 @@
         <v>216</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T175" s="4" t="s">
         <v>218</v>
@@ -17930,7 +14957,7 @@
         <v>216</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>218</v>
@@ -17983,7 +15010,7 @@
         <v>216</v>
       </c>
       <c r="S177" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T177" s="4" t="s">
         <v>221</v>
@@ -18036,7 +15063,7 @@
         <v>216</v>
       </c>
       <c r="S178" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>221</v>
@@ -18089,7 +15116,7 @@
         <v>216</v>
       </c>
       <c r="S179" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T179" s="4" t="s">
         <v>221</v>
@@ -18142,7 +15169,7 @@
         <v>216</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T180" s="3" t="s">
         <v>221</v>
@@ -18195,7 +15222,7 @@
         <v>216</v>
       </c>
       <c r="S181" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T181" s="4" t="s">
         <v>221</v>
@@ -18248,7 +15275,7 @@
         <v>216</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T182" s="3" t="s">
         <v>221</v>
@@ -18301,7 +15328,7 @@
         <v>216</v>
       </c>
       <c r="S183" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T183" s="4" t="s">
         <v>218</v>
@@ -18354,7 +15381,7 @@
         <v>216</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T184" s="3" t="s">
         <v>221</v>
@@ -18407,7 +15434,7 @@
         <v>216</v>
       </c>
       <c r="S185" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T185" s="4" t="s">
         <v>221</v>
@@ -20440,30 +17467,30 @@
         <v>189</v>
       </c>
       <c r="D249" s="4">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="E249" s="4">
-        <v>9.8000000000000014E-3</v>
+        <v>4.5823890000000009</v>
       </c>
       <c r="F249" s="4">
         <v>1</v>
       </c>
       <c r="G249" s="4">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="H249" s="4">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="I249" s="4">
         <v>0</v>
       </c>
       <c r="J249" s="4">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>188</v>
@@ -20472,10 +17499,10 @@
         <v>189</v>
       </c>
       <c r="D250" s="3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E250" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>9.8000000000000014E-3</v>
       </c>
       <c r="F250" s="3">
         <v>1</v>
@@ -20484,18 +17511,18 @@
         <v>1336.5</v>
       </c>
       <c r="H250" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I250" s="3">
         <v>0</v>
       </c>
       <c r="J250" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>188</v>
@@ -20504,10 +17531,10 @@
         <v>189</v>
       </c>
       <c r="D251" s="4">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E251" s="4">
-        <v>0.15529999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F251" s="4">
         <v>1</v>
@@ -20516,18 +17543,18 @@
         <v>1336.5</v>
       </c>
       <c r="H251" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I251" s="4">
         <v>0</v>
       </c>
       <c r="J251" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>188</v>
@@ -20536,30 +17563,30 @@
         <v>189</v>
       </c>
       <c r="D252" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E252" s="3">
-        <v>0.71190000000000009</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="F252" s="3">
         <v>1</v>
       </c>
       <c r="G252" s="3">
-        <v>1296.4494310998734</v>
+        <v>1336.5</v>
       </c>
       <c r="H252" s="3">
-        <v>20.782490518331215</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I252" s="3">
         <v>0</v>
       </c>
       <c r="J252" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>188</v>
@@ -20568,30 +17595,30 @@
         <v>189</v>
       </c>
       <c r="D253" s="4">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E253" s="4">
-        <v>0.51930000000000009</v>
+        <v>0.71190000000000009</v>
       </c>
       <c r="F253" s="4">
         <v>1</v>
       </c>
       <c r="G253" s="4">
-        <v>1271.3006932409014</v>
+        <v>1296.4494310998734</v>
       </c>
       <c r="H253" s="4">
-        <v>20.363344887348369</v>
+        <v>20.782490518331215</v>
       </c>
       <c r="I253" s="4">
         <v>0</v>
       </c>
       <c r="J253" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>188</v>
@@ -20600,30 +17627,30 @@
         <v>189</v>
       </c>
       <c r="D254" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E254" s="3">
-        <v>0.35039999999999988</v>
+        <v>0.51930000000000009</v>
       </c>
       <c r="F254" s="3">
         <v>1</v>
       </c>
       <c r="G254" s="3">
-        <v>1336.5000000000002</v>
+        <v>1271.3006932409014</v>
       </c>
       <c r="H254" s="3">
-        <v>21.450000000000006</v>
+        <v>20.363344887348369</v>
       </c>
       <c r="I254" s="3">
         <v>0</v>
       </c>
       <c r="J254" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>188</v>
@@ -20632,16 +17659,16 @@
         <v>189</v>
       </c>
       <c r="D255" s="4">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E255" s="4">
-        <v>0.54459999999999986</v>
+        <v>0.35039999999999988</v>
       </c>
       <c r="F255" s="4">
         <v>1</v>
       </c>
       <c r="G255" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H255" s="4">
         <v>21.450000000000006</v>
@@ -20650,12 +17677,12 @@
         <v>0</v>
       </c>
       <c r="J255" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>188</v>
@@ -20664,30 +17691,30 @@
         <v>189</v>
       </c>
       <c r="D256" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E256" s="3">
-        <v>1.3835999999999993</v>
+        <v>0.54459999999999986</v>
       </c>
       <c r="F256" s="3">
         <v>1</v>
       </c>
       <c r="G256" s="3">
-        <v>1317.2380745880314</v>
+        <v>1336.5</v>
       </c>
       <c r="H256" s="3">
-        <v>21.128967909800529</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I256" s="3">
         <v>0</v>
       </c>
       <c r="J256" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>188</v>
@@ -20696,30 +17723,30 @@
         <v>189</v>
       </c>
       <c r="D257" s="4">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E257" s="4">
-        <v>0.3642999999999999</v>
+        <v>1.3835999999999993</v>
       </c>
       <c r="F257" s="4">
         <v>1</v>
       </c>
       <c r="G257" s="4">
-        <v>1336.5000000000002</v>
+        <v>1317.2380745880314</v>
       </c>
       <c r="H257" s="4">
-        <v>21.45</v>
+        <v>21.128967909800529</v>
       </c>
       <c r="I257" s="4">
         <v>0</v>
       </c>
       <c r="J257" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>188</v>
@@ -20728,30 +17755,30 @@
         <v>189</v>
       </c>
       <c r="D258" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E258" s="3">
-        <v>0.62750000000000028</v>
+        <v>0.3642999999999999</v>
       </c>
       <c r="F258" s="3">
         <v>1</v>
       </c>
       <c r="G258" s="3">
-        <v>1287.5916334661354</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H258" s="3">
-        <v>20.634860557768906</v>
+        <v>21.45</v>
       </c>
       <c r="I258" s="3">
         <v>0</v>
       </c>
       <c r="J258" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>188</v>
@@ -20760,30 +17787,30 @@
         <v>189</v>
       </c>
       <c r="D259" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E259" s="4">
-        <v>0.53889999999999993</v>
+        <v>0.62750000000000028</v>
       </c>
       <c r="F259" s="4">
         <v>1</v>
       </c>
       <c r="G259" s="4">
-        <v>1336.5</v>
+        <v>1287.5916334661354</v>
       </c>
       <c r="H259" s="4">
-        <v>21.449999999999996</v>
+        <v>20.634860557768906</v>
       </c>
       <c r="I259" s="4">
         <v>0</v>
       </c>
       <c r="J259" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>188</v>
@@ -20792,30 +17819,30 @@
         <v>189</v>
       </c>
       <c r="D260" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E260" s="3">
-        <v>0.48310000000000014</v>
+        <v>0.53889999999999993</v>
       </c>
       <c r="F260" s="3">
         <v>1</v>
       </c>
       <c r="G260" s="3">
-        <v>1336.4999999999991</v>
+        <v>1336.5</v>
       </c>
       <c r="H260" s="3">
-        <v>21.449999999999985</v>
+        <v>21.449999999999996</v>
       </c>
       <c r="I260" s="3">
         <v>0</v>
       </c>
       <c r="J260" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>188</v>
@@ -20824,30 +17851,30 @@
         <v>189</v>
       </c>
       <c r="D261" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E261" s="4">
-        <v>0.56120000000000014</v>
+        <v>0.48310000000000014</v>
       </c>
       <c r="F261" s="4">
         <v>1</v>
       </c>
       <c r="G261" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999991</v>
       </c>
       <c r="H261" s="4">
-        <v>21.449999999999989</v>
+        <v>21.449999999999985</v>
       </c>
       <c r="I261" s="4">
         <v>0</v>
       </c>
       <c r="J261" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>188</v>
@@ -20856,30 +17883,30 @@
         <v>189</v>
       </c>
       <c r="D262" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E262" s="3">
-        <v>2.0856999999999997</v>
+        <v>0.56120000000000014</v>
       </c>
       <c r="F262" s="3">
         <v>1</v>
       </c>
       <c r="G262" s="3">
-        <v>1303.1313467900463</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H262" s="3">
-        <v>20.893855779834112</v>
+        <v>21.449999999999989</v>
       </c>
       <c r="I262" s="3">
         <v>0</v>
       </c>
       <c r="J262" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>188</v>
@@ -20888,30 +17915,30 @@
         <v>189</v>
       </c>
       <c r="D263" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E263" s="4">
-        <v>1.4789000000000005</v>
+        <v>2.0856999999999997</v>
       </c>
       <c r="F263" s="4">
         <v>1</v>
       </c>
       <c r="G263" s="4">
-        <v>1322.0406045033469</v>
+        <v>1303.1313467900463</v>
       </c>
       <c r="H263" s="4">
-        <v>21.209010075055787</v>
+        <v>20.893855779834112</v>
       </c>
       <c r="I263" s="4">
         <v>0</v>
       </c>
       <c r="J263" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>188</v>
@@ -20920,30 +17947,30 @@
         <v>189</v>
       </c>
       <c r="D264" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E264" s="3">
-        <v>0.58370000000000011</v>
+        <v>1.4789000000000005</v>
       </c>
       <c r="F264" s="3">
         <v>1</v>
       </c>
       <c r="G264" s="3">
-        <v>1317.5378619153673</v>
+        <v>1322.0406045033469</v>
       </c>
       <c r="H264" s="3">
-        <v>21.133964365256119</v>
+        <v>21.209010075055787</v>
       </c>
       <c r="I264" s="3">
         <v>0</v>
       </c>
       <c r="J264" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>188</v>
@@ -20952,30 +17979,30 @@
         <v>189</v>
       </c>
       <c r="D265" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E265" s="4">
-        <v>1.4859000000000007</v>
+        <v>0.58370000000000011</v>
       </c>
       <c r="F265" s="4">
         <v>1</v>
       </c>
       <c r="G265" s="4">
-        <v>1336.4999999999998</v>
+        <v>1317.5378619153673</v>
       </c>
       <c r="H265" s="4">
-        <v>21.449999999999985</v>
+        <v>21.133964365256119</v>
       </c>
       <c r="I265" s="4">
         <v>0</v>
       </c>
       <c r="J265" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>188</v>
@@ -20984,30 +18011,30 @@
         <v>189</v>
       </c>
       <c r="D266" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E266" s="3">
-        <v>0.12459999999999999</v>
+        <v>1.4859000000000007</v>
       </c>
       <c r="F266" s="3">
         <v>1</v>
       </c>
       <c r="G266" s="3">
-        <v>1218.4309791332264</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H266" s="3">
-        <v>19.482182985553774</v>
+        <v>21.449999999999985</v>
       </c>
       <c r="I266" s="3">
         <v>0</v>
       </c>
       <c r="J266" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>188</v>
@@ -21016,19 +18043,19 @@
         <v>189</v>
       </c>
       <c r="D267" s="4">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E267" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>0.12459999999999999</v>
       </c>
       <c r="F267" s="4">
         <v>1</v>
       </c>
       <c r="G267" s="4">
-        <v>1336.5</v>
+        <v>1218.4309791332264</v>
       </c>
       <c r="H267" s="4">
-        <v>21.450000000000003</v>
+        <v>19.482182985553774</v>
       </c>
       <c r="I267" s="4">
         <v>0</v>
@@ -21039,7 +18066,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>188</v>
@@ -21048,19 +18075,19 @@
         <v>189</v>
       </c>
       <c r="D268" s="3">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E268" s="3">
-        <v>0.15</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F268" s="3">
         <v>1</v>
       </c>
       <c r="G268" s="3">
-        <v>1269.18</v>
+        <v>1336.5</v>
       </c>
       <c r="H268" s="3">
-        <v>20.328000000000007</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I268" s="3">
         <v>0</v>
@@ -21080,25 +18107,25 @@
         <v>189</v>
       </c>
       <c r="D269" s="4">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="E269" s="4">
-        <v>4.5823890000000009</v>
+        <v>0.15</v>
       </c>
       <c r="F269" s="4">
         <v>1</v>
       </c>
       <c r="G269" s="4">
-        <v>990</v>
+        <v>1269.18</v>
       </c>
       <c r="H269" s="4">
-        <v>16.5</v>
+        <v>20.328000000000007</v>
       </c>
       <c r="I269" s="4">
         <v>0</v>
       </c>
       <c r="J269" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.45">
@@ -22383,8 +19410,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>